--- a/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report001_RptDepartmentBudgetGroupByExpenses_Template.xlsx
+++ b/SourceCode/ExcisePlaning/Contents/ReportTemplates/Report001_RptDepartmentBudgetGroupByExpenses_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Environment_Owner\Developments\C#\ASP.NET\Planing-กรมสรรพสามิต\CSharpWebExcisePlaning\SourceCode\ExcisePlaning\Contents\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="3540" windowWidth="21648" windowHeight="13368"/>
+    <workbookView xWindow="2832" yWindow="4452" windowWidth="21648" windowHeight="13368"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="4" r:id="rId1"/>
@@ -152,20 +152,20 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -489,40 +489,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="24.6" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -531,7 +531,7 @@
     </row>
     <row r="4" spans="1:15" ht="27" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="25.5" customHeight="1"/>
     <row r="9" spans="1:15">
@@ -558,7 +558,7 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:F2"/>
   </mergeCells>
-  <pageMargins left="0.3" right="0.22" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>